--- a/New folder/10-2019/01-09-2019.xlsx
+++ b/New folder/10-2019/01-09-2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="5040" windowWidth="15360" windowHeight="2505" tabRatio="519" activeTab="2"/>
+    <workbookView xWindow="32760" yWindow="5040" windowWidth="15360" windowHeight="2505" tabRatio="519" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="27" r:id="rId1"/>
@@ -15,11 +15,11 @@
     <sheet name="CCTV" sheetId="34" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Area 04'!$A$1:$K$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Area 04'!$A$1:$K$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$L$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Cover!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -281,9 +281,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -869,7 +869,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -974,10 +974,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1065,24 +1065,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="16" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="16" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1100,6 +1088,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1676,19 +1670,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J19"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Column1" dataDxfId="11"/>
-    <tableColumn id="2" name="Column2" dataDxfId="10"/>
-    <tableColumn id="3" name="Column3" dataDxfId="9"/>
-    <tableColumn id="4" name="Column4" dataDxfId="8"/>
-    <tableColumn id="5" name="Column5" dataDxfId="7"/>
-    <tableColumn id="6" name="Column6" dataDxfId="6"/>
-    <tableColumn id="7" name="Column7" dataDxfId="5"/>
-    <tableColumn id="8" name="Column8" dataDxfId="4"/>
-    <tableColumn id="9" name="Column9" dataDxfId="3"/>
-    <tableColumn id="10" name="Column10" dataDxfId="2"/>
+    <tableColumn id="1" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" name="Column2" dataDxfId="8"/>
+    <tableColumn id="3" name="Column3" dataDxfId="7"/>
+    <tableColumn id="4" name="Column4" dataDxfId="6"/>
+    <tableColumn id="5" name="Column5" dataDxfId="5"/>
+    <tableColumn id="6" name="Column6" dataDxfId="4"/>
+    <tableColumn id="7" name="Column7" dataDxfId="3"/>
+    <tableColumn id="8" name="Column8" dataDxfId="2"/>
+    <tableColumn id="9" name="Column9" dataDxfId="1"/>
+    <tableColumn id="10" name="Column10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2459,10 +2453,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K64786"/>
+  <dimension ref="A1:K64785"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2494,93 +2488,111 @@
       <c r="G1" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-    </row>
-    <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+    </row>
+    <row r="2" spans="1:11" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A2" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:11" s="46" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A4" s="54" t="s">
+    <row r="3" spans="1:11" s="46" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F3" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G3" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H3" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I3" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K3" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="46" customFormat="1" ht="15">
+      <c r="A4" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="59" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="46" customFormat="1" ht="15">
       <c r="A5" s="58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -2588,7 +2600,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>67</v>
@@ -2610,16 +2622,14 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="46" customFormat="1" ht="15">
-      <c r="A6" s="58" t="s">
-        <v>47</v>
-      </c>
+      <c r="A6" s="58"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>67</v>
@@ -2641,23 +2651,25 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="46" customFormat="1" ht="15">
-      <c r="A7" s="58"/>
+      <c r="A7" s="58" t="s">
+        <v>48</v>
+      </c>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I7" s="43" t="s">
         <v>42</v>
@@ -2666,91 +2678,49 @@
         <v>43</v>
       </c>
       <c r="K7" s="59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="46" customFormat="1" ht="15">
-      <c r="A8" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45.75" thickBot="1">
+      <c r="A8" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A9" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" thickTop="1"/>
-    <row r="64786" spans="4:4" ht="15">
-      <c r="D64786" s="43" t="s">
+    <row r="9" spans="1:11" ht="13.5" thickTop="1"/>
+    <row r="64785" spans="4:4" ht="15">
+      <c r="D64785" s="43" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="1">
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="41" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2761,10 +2731,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2793,97 +2763,115 @@
         <v>60</v>
       </c>
       <c r="H1" s="51"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="46.5" hidden="1" customHeight="1">
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="75" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A5" s="54" t="s">
+    <row r="4" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A4" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E4" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F4" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G4" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H4" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I4" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J4" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K4" s="57" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="58" t="s">
-        <v>46</v>
+      <c r="A6" s="58">
+        <v>3</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -2891,7 +2879,7 @@
         <v>58</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>53</v>
@@ -2914,7 +2902,7 @@
     </row>
     <row r="7" spans="1:11" ht="15">
       <c r="A7" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -2922,7 +2910,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>53</v>
@@ -2943,83 +2931,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="58">
-        <v>4</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43" t="s">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A8" s="60">
+        <v>5</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="60">
-        <v>5</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" thickTop="1"/>
+    <row r="9" spans="1:11" ht="13.5" thickTop="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="1">
     <mergeCell ref="I1:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3336,57 +3282,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="89.25" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="72" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="42.75" customHeight="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="43"/>
